--- a/src/test/resources/Exel_Word_ECT_TestData/DemoAppTetData.xlsx
+++ b/src/test/resources/Exel_Word_ECT_TestData/DemoAppTetData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhhi\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A6A61-272C-4D0A-B866-44281B72CC57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22B478-2AC3-489F-A38D-5F6E8B121CB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1305" windowWidth="15375" windowHeight="7995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>telephone</t>
   </si>
@@ -141,6 +142,30 @@
   </si>
   <si>
     <t>subs</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>phoneno</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>Shankar</t>
+  </si>
+  <si>
+    <t>abhhi@hotmail.com</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -473,7 +498,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9ECD4-DDAE-4161-ABF8-07B774DEABF3}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +722,65 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD1FE35-3B39-4908-B56B-23770421F708}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9BE32B3E-1680-43F9-8106-1CD5ADC060D1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>